--- a/biology/Botanique/Arundinaria_gigantea/Arundinaria_gigantea.xlsx
+++ b/biology/Botanique/Arundinaria_gigantea/Arundinaria_gigantea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arundinaria gigantea est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire des États-Unis. C'est un bambou, graminée vivace aux rhizomes allongés, leptomorphes, et aux tiges ligneuses dressées (ou cannes) qui peuvent atteindre 10 mètres de long et 7 cm de diamètre. Cette espèce, ainsi que les autres espèces du genre Arundinaria formaient autrefois des peuplements denses, appelés canebrakes, dans le Sud-Est des États-Unis. Ces formations qui étaient caractéristiques du paysage de ces régions sont aujourd'hui un écosystème en danger d'extinction.
 </t>
@@ -511,18 +523,54 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (15 juin 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 juin 2017) :
 sous-espèce Arundinaria gigantea subsp. tecta (Walter) McClure
-Selon Tropicos                                           (15 juin 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 juin 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Arundinaria gigantea subsp. gigantea (Walter) Muhl.
 sous-espèce Arundinaria gigantea subsp. macrosperma (Michx.) McClure
 sous-espèce Arundinaria gigantea subsp. tecta (Walter) McClure
 variété Arundinaria gigantea var. gigantea
-variété Arundinaria gigantea var. tecta (Walter) Scribn.
-Clé de détermination
-Branches primaires avec 0–1 internoeud; internoeud avec sillon; feuilles caduques : A. gigantea
+variété Arundinaria gigantea var. tecta (Walter) Scribn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arundinaria_gigantea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arundinaria_gigantea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Clé de détermination</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Branches primaires avec 0–1 internoeud; internoeud avec sillon; feuilles caduques : A. gigantea
 Branches primaires avec 2-5 internoeud; internoeud aérien généralement circulaires sans sillon; feuilles persistantes ou tardivement caduques :
 Feuilles : coriaces, persistantes, côté supérieur pubescent ou glabre, nervures très marquées, feuilles du sommet 20-30 cm de long. Longueur des branches primaires supérieur à 50 cm. Nœud basals avec branches secondaires : A. tecta
 Feuilles : parcheminées, caduques, côté supérieur très pubescent ou glabre, nervures faiblement marquées; feuilles du sommet 9-22,5 cm de long. Longueur des branches primaires inférieures à 35 cm. Nœuds basals sans branches secondaires : A. appalachiana</t>
